--- a/Test/MC_Ssf/T1/Sensors_data_1000018.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000018.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9597956273115428</v>
+        <v>0.8265786968663232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001753744432976899</v>
+        <v>0.007564765337517712</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.005454785556679387</v>
+        <v>-0.0001263336443100838</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8088038224891343</v>
+        <v>0.9731773104458128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009708363255811037</v>
+        <v>0.001361974999082282</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4135619308221862</v>
+        <v>0.005263952455137222</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
